--- a/data/demo1-1/demo1-1-result.xlsx
+++ b/data/demo1-1/demo1-1-result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saikishunsuke/work-space/sotsuken/data/demo1-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD56021-FFC2-A542-A730-01C5B1D25926}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D2214EB-4AF0-8C4A-AD4E-FCFCB218B90A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{F1D93DF3-1C0D-2641-AC59-9130AD7A57A6}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="1" xr2:uid="{F1D93DF3-1C0D-2641-AC59-9130AD7A57A6}"/>
   </bookViews>
   <sheets>
     <sheet name="ただの平均" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="26">
   <si>
     <t>程</t>
     <rPh sb="0" eb="1">
@@ -193,6 +193,13 @@
     <t>right+dif相関係数</t>
     <rPh sb="9" eb="13">
       <t>ソウカn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>被験者名</t>
+    <rPh sb="0" eb="4">
+      <t>ヒケンシャ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -201,7 +208,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -231,6 +238,22 @@
       <name val="Lucida Sans"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -254,7 +277,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -265,6 +288,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -583,8 +612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FFA0E34-6E76-9B44-AD4C-163BFEC80480}">
   <dimension ref="B3:S18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+    <sheetView zoomScale="106" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -597,18 +626,25 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:19">
-      <c r="D3" t="s">
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F3" t="s">
+      <c r="E3" s="5"/>
+      <c r="F3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H3" t="s">
+      <c r="G3" s="5"/>
+      <c r="H3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="J3" t="s">
+      <c r="I3" s="5"/>
+      <c r="J3" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="K3" s="5"/>
       <c r="M3" t="s">
         <v>11</v>
       </c>
@@ -746,19 +782,19 @@
         <v>1.0322579999999999</v>
       </c>
       <c r="M6">
-        <f t="shared" ref="M6:M13" si="0">CORREL(D6:K6,$D$14:$K$14)</f>
+        <f t="shared" ref="M6:M10" si="0">CORREL(D6:K6,$D$14:$K$14)</f>
         <v>-9.8069848259514314E-2</v>
       </c>
       <c r="N6">
-        <f t="shared" ref="N6:N13" si="1">CORREL(D6:K6, $D$12:$K$12)</f>
+        <f t="shared" ref="N6:N10" si="1">CORREL(D6:K6, $D$12:$K$12)</f>
         <v>0.72337165416046545</v>
       </c>
       <c r="O6">
-        <f t="shared" ref="O6:O13" si="2">CORREL(D6:K6, $D$13:$K$13)</f>
+        <f t="shared" ref="O6:O10" si="2">CORREL(D6:K6, $D$13:$K$13)</f>
         <v>0.43138560330112724</v>
       </c>
       <c r="P6">
-        <f t="shared" ref="P6:P13" si="3">CORREL(D6:K6, $D$15:$K$15)</f>
+        <f t="shared" ref="P6:P10" si="3">CORREL(D6:K6, $D$15:$K$15)</f>
         <v>-0.22929764416718798</v>
       </c>
       <c r="Q6">
@@ -1264,25 +1300,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FF7DA65-12E3-9748-A31F-1E5A57CABEED}">
   <dimension ref="B3:S18"/>
   <sheetViews>
-    <sheetView zoomScale="98" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="16" max="17" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="3" spans="2:19">
-      <c r="D3" t="s">
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F3" t="s">
+      <c r="E3" s="5"/>
+      <c r="F3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H3" t="s">
+      <c r="G3" s="5"/>
+      <c r="H3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="J3" t="s">
+      <c r="I3" s="5"/>
+      <c r="J3" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="K3" s="5"/>
       <c r="M3" t="s">
         <v>11</v>
       </c>
@@ -1363,32 +1410,32 @@
         <v>21.647130000000001</v>
       </c>
       <c r="M5">
-        <f>CORREL(D5:K5,$D$14:$K$14)</f>
+        <f t="shared" ref="M5:M10" si="0">CORREL(D5:K5,$D$14:$K$14)</f>
         <v>0.33394915291667654</v>
       </c>
       <c r="N5">
-        <f>CORREL(D5:K5, $D$12:$K$12)</f>
+        <f t="shared" ref="N5:N10" si="1">CORREL(D5:K5, $D$12:$K$12)</f>
         <v>3.0417534279888782E-2</v>
       </c>
       <c r="O5">
-        <f>CORREL(D5:K5, $D$13:$K$13)</f>
+        <f t="shared" ref="O5:O10" si="2">CORREL(D5:K5, $D$13:$K$13)</f>
         <v>-0.10841249672770306</v>
       </c>
       <c r="P5">
-        <f>CORREL(D5:K5, $D$15:$K$15)</f>
-        <v>-0.56406420419145342</v>
+        <f t="shared" ref="P5:P10" si="3">CORREL(D5:K5, $D$15:$K$15)</f>
+        <v>-0.18879473238445757</v>
       </c>
       <c r="Q5">
-        <f>CORREL(D5:K5, $D$16:$K$16)</f>
+        <f t="shared" ref="Q5:Q10" si="4">CORREL(D5:K5, $D$16:$K$16)</f>
         <v>2.3232401297782561E-3</v>
       </c>
       <c r="R5">
-        <f>CORREL(D5:K5, $D$17:$K$17)</f>
+        <f t="shared" ref="R5:R10" si="5">CORREL(D5:K5, $D$17:$K$17)</f>
         <v>0.44662004551207762</v>
       </c>
       <c r="S5">
-        <f>CORREL(D5:K5, $D$18:$K$18)</f>
-        <v>-1.6011127843643627E-2</v>
+        <f t="shared" ref="S5:S10" si="6">CORREL(D5:K5, $D$18:$K$18)</f>
+        <v>0.36205674678479849</v>
       </c>
     </row>
     <row r="6" spans="2:19">
@@ -1420,32 +1467,32 @@
         <v>6</v>
       </c>
       <c r="M6">
-        <f>CORREL(D6:K6,$D$14:$K$14)</f>
+        <f t="shared" si="0"/>
         <v>0.31761834574055364</v>
       </c>
       <c r="N6">
-        <f>CORREL(D6:K6, $D$12:$K$12)</f>
+        <f t="shared" si="1"/>
         <v>0.22003245629584905</v>
       </c>
       <c r="O6">
-        <f>CORREL(D6:K6, $D$13:$K$13)</f>
+        <f t="shared" si="2"/>
         <v>0.56693020445306663</v>
       </c>
       <c r="P6">
-        <f>CORREL(D6:K6, $D$15:$K$15)</f>
-        <v>-0.42961468452939316</v>
+        <f t="shared" si="3"/>
+        <v>-0.53834146208985845</v>
       </c>
       <c r="Q6">
-        <f>CORREL(D6:K6, $D$16:$K$16)</f>
+        <f t="shared" si="4"/>
         <v>0.40860458917305514</v>
       </c>
       <c r="R6">
-        <f>CORREL(D6:K6, $D$17:$K$17)</f>
+        <f t="shared" si="5"/>
         <v>0.17888515152421974</v>
       </c>
       <c r="S6">
-        <f>CORREL(D6:K6, $D$18:$K$18)</f>
-        <v>-0.12050189930430159</v>
+        <f t="shared" si="6"/>
+        <v>2.0917268910027976E-2</v>
       </c>
     </row>
     <row r="7" spans="2:19">
@@ -1477,32 +1524,32 @@
         <v>6.8333329999999997</v>
       </c>
       <c r="M7">
-        <f>CORREL(D7:K7,$D$14:$K$14)</f>
+        <f t="shared" si="0"/>
         <v>4.1864601863607132E-2</v>
       </c>
       <c r="N7">
-        <f>CORREL(D7:K7, $D$12:$K$12)</f>
+        <f t="shared" si="1"/>
         <v>-4.7561376832077056E-2</v>
       </c>
       <c r="O7">
-        <f>CORREL(D7:K7, $D$13:$K$13)</f>
+        <f t="shared" si="2"/>
         <v>0.46078059325624243</v>
       </c>
       <c r="P7">
-        <f>CORREL(D7:K7, $D$15:$K$15)</f>
-        <v>-0.57813572802246815</v>
+        <f t="shared" si="3"/>
+        <v>-0.84422483933439851</v>
       </c>
       <c r="Q7">
-        <f>CORREL(D7:K7, $D$16:$K$16)</f>
+        <f t="shared" si="4"/>
         <v>-5.8777309607563652E-2</v>
       </c>
       <c r="R7">
-        <f>CORREL(D7:K7, $D$17:$K$17)</f>
+        <f t="shared" si="5"/>
         <v>-9.0027316647227004E-2</v>
       </c>
       <c r="S7">
-        <f>CORREL(D7:K7, $D$18:$K$18)</f>
-        <v>-0.38427868915656854</v>
+        <f t="shared" si="6"/>
+        <v>-0.30960025627824422</v>
       </c>
     </row>
     <row r="8" spans="2:19">
@@ -1537,32 +1584,32 @@
         <v>19.25</v>
       </c>
       <c r="M8">
-        <f>CORREL(D8:K8,$D$14:$K$14)</f>
+        <f t="shared" si="0"/>
         <v>-9.0488591494076592E-2</v>
       </c>
       <c r="N8">
-        <f>CORREL(D8:K8, $D$12:$K$12)</f>
+        <f t="shared" si="1"/>
         <v>-0.38539890883349481</v>
       </c>
       <c r="O8">
-        <f>CORREL(D8:K8, $D$13:$K$13)</f>
+        <f t="shared" si="2"/>
         <v>-0.68050250866169959</v>
       </c>
       <c r="P8">
-        <f>CORREL(D8:K8, $D$15:$K$15)</f>
-        <v>-5.7756119320265741E-4</v>
+        <f t="shared" si="3"/>
+        <v>0.28799672149317407</v>
       </c>
       <c r="Q8">
-        <f>CORREL(D8:K8, $D$16:$K$16)</f>
+        <f t="shared" si="4"/>
         <v>-0.50912800064976416</v>
       </c>
       <c r="R8">
-        <f>CORREL(D8:K8, $D$17:$K$17)</f>
+        <f t="shared" si="5"/>
         <v>7.5412796030363355E-2</v>
       </c>
       <c r="S8">
-        <f>CORREL(D8:K8, $D$18:$K$18)</f>
-        <v>5.0320019767261318E-2</v>
+        <f t="shared" si="6"/>
+        <v>0.14692133321329642</v>
       </c>
     </row>
     <row r="9" spans="2:19">
@@ -1594,32 +1641,32 @@
         <v>3</v>
       </c>
       <c r="M9">
-        <f>CORREL(D9:K9,$D$14:$K$14)</f>
+        <f t="shared" si="0"/>
         <v>-0.21379561472292971</v>
       </c>
       <c r="N9">
-        <f>CORREL(D9:K9, $D$12:$K$12)</f>
+        <f t="shared" si="1"/>
         <v>-0.29024257237491974</v>
       </c>
       <c r="O9">
-        <f>CORREL(D9:K9, $D$13:$K$13)</f>
+        <f t="shared" si="2"/>
         <v>-0.65228659717394832</v>
       </c>
       <c r="P9">
-        <f>CORREL(D9:K9, $D$15:$K$15)</f>
-        <v>0.21181824030984123</v>
+        <f t="shared" si="3"/>
+        <v>0.59967198640544039</v>
       </c>
       <c r="Q9">
-        <f>CORREL(D9:K9, $D$16:$K$16)</f>
+        <f t="shared" si="4"/>
         <v>-0.11426210867792203</v>
       </c>
       <c r="R9">
-        <f>CORREL(D9:K9, $D$17:$K$17)</f>
+        <f t="shared" si="5"/>
         <v>-7.4112740418989825E-2</v>
       </c>
       <c r="S9">
-        <f>CORREL(D9:K9, $D$18:$K$18)</f>
-        <v>6.8871479897928037E-2</v>
+        <f t="shared" si="6"/>
+        <v>9.2343623772881619E-2</v>
       </c>
     </row>
     <row r="10" spans="2:19">
@@ -1651,32 +1698,32 @@
         <v>3.9</v>
       </c>
       <c r="M10">
-        <f>CORREL(D10:K10,$D$14:$K$14)</f>
+        <f t="shared" si="0"/>
         <v>-0.27838028825274125</v>
       </c>
       <c r="N10">
-        <f>CORREL(D10:K10, $D$12:$K$12)</f>
+        <f t="shared" si="1"/>
         <v>0.15775022749860323</v>
       </c>
       <c r="O10">
-        <f>CORREL(D10:K10, $D$13:$K$13)</f>
+        <f t="shared" si="2"/>
         <v>1.5730557864809768E-3</v>
       </c>
       <c r="P10">
-        <f>CORREL(D10:K10, $D$15:$K$15)</f>
-        <v>0.58819667120464292</v>
+        <f t="shared" si="3"/>
+        <v>0.33030789006396671</v>
       </c>
       <c r="Q10">
-        <f>CORREL(D10:K10, $D$16:$K$16)</f>
+        <f t="shared" si="4"/>
         <v>-0.16859426565772312</v>
       </c>
       <c r="R10">
-        <f>CORREL(D10:K10, $D$17:$K$17)</f>
+        <f t="shared" si="5"/>
         <v>-0.23919268852215228</v>
       </c>
       <c r="S10">
-        <f>CORREL(D10:K10, $D$18:$K$18)</f>
-        <v>0.1688260074468208</v>
+        <f t="shared" si="6"/>
+        <v>-0.132435616378758</v>
       </c>
     </row>
     <row r="11" spans="2:19">
@@ -1775,31 +1822,31 @@
         <v>4</v>
       </c>
       <c r="E14">
-        <f t="shared" ref="E14:K14" si="0">-1*E11</f>
+        <f t="shared" ref="E14:K14" si="7">-1*E11</f>
         <v>14</v>
       </c>
       <c r="F14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="G14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>-10</v>
       </c>
       <c r="H14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>22</v>
       </c>
       <c r="I14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="J14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="K14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>16</v>
       </c>
       <c r="M14" s="2"/>
@@ -1816,7 +1863,7 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -1908,31 +1955,31 @@
         <v>3</v>
       </c>
       <c r="E18">
-        <f t="shared" ref="E18:K18" si="1">E15+E17</f>
+        <f t="shared" ref="E18:K18" si="8">E15+E17</f>
         <v>3</v>
       </c>
       <c r="F18">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f t="shared" si="8"/>
+        <v>5</v>
       </c>
       <c r="G18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
       <c r="H18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="I18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
       <c r="J18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="K18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="N18" s="2"/>
